--- a/medicine/Sexualité et sexologie/La_Boîte_à_fantasmes_de_Tinto_Brass/La_Boîte_à_fantasmes_de_Tinto_Brass.xlsx
+++ b/medicine/Sexualité et sexologie/La_Boîte_à_fantasmes_de_Tinto_Brass/La_Boîte_à_fantasmes_de_Tinto_Brass.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Bo%C3%AEte_%C3%A0_fantasmes_de_Tinto_Brass</t>
+          <t>La_Boîte_à_fantasmes_de_Tinto_Brass</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Boîte à fantasmes de Tinto Brass (Fermo posta Tinto Brass) est une comédie érotique italienne réalisée par Tinto Brass et sortie en 1995.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Bo%C3%AEte_%C3%A0_fantasmes_de_Tinto_Brass</t>
+          <t>La_Boîte_à_fantasmes_de_Tinto_Brass</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tinto Brass, le protagoniste du film, reçoit des lettres d'admirateurs racontant leurs fantasmes et aventures érotiques, les commente et les lit avec sa secrétaire Lucia, « aux formes généreuses » et sans culotte, à ses côtés. Brass joue son propre rôle, commentant les différents épisodes et rejouant le fantasme du dernier épisode.
 Sguardi
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Bo%C3%AEte_%C3%A0_fantasmes_de_Tinto_Brass</t>
+          <t>La_Boîte_à_fantasmes_de_Tinto_Brass</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,10 +574,12 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Titre italien : Fermo posta Tinto Brass[1]
-Titre français : La Boîte à fantasmes de Tinto Brass[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Titre italien : Fermo posta Tinto Brass
+Titre français : La Boîte à fantasmes de Tinto Brass
 Réalisateur : Tinto Brass
 Scénario : Tinto Brass, Aurelio Grimaldi, Claudio Lizza
 Photographie : Dante Dalla Torre
@@ -590,7 +606,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Bo%C3%AEte_%C3%A0_fantasmes_de_Tinto_Brass</t>
+          <t>La_Boîte_à_fantasmes_de_Tinto_Brass</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -608,7 +624,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tinto Brass : lui-même
 Cinzia Roccaforte : Lucia, la secrétaire
